--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2021 Fall/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2021 Fall2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557067F5-DA77-674A-8206-7C34960A248E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8347C2EC-2531-F143-A63D-7629EA304305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="5100" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="14740" yWindow="9120" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Chapter 4 - Distributions</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/meetup_00_introductions/)</t>
   </si>
 </sst>
 </file>
@@ -562,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,6 +614,9 @@
       <c r="E2" t="s">
         <v>31</v>
       </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -865,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2021 Fall2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8347C2EC-2531-F143-A63D-7629EA304305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE515D2E-2173-CE43-A62B-4DF6D70F6072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14740" yWindow="9120" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>Intro to the Course</t>
-  </si>
-  <si>
-    <t>NO CLASS - Happy Thanksgiving</t>
   </si>
   <si>
     <t>TBD</t>
@@ -563,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -615,7 +612,7 @@
         <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -816,20 +813,29 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44524</v>
+        <v>44531</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44531</v>
+        <v>44538</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
@@ -838,26 +844,9 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>44538</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
         <v>31</v>
       </c>
     </row>
@@ -945,7 +934,7 @@
         <v>44465</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -1029,7 +1018,7 @@
         <v>44528</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2021 Fall2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DATA606 2021 Fall2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE515D2E-2173-CE43-A62B-4DF6D70F6072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F8C6CF-0E46-DB4A-AD45-917AF040D367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14740" yWindow="9120" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>[Recording and slides](/blog/meetup_00_introductions/)</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/meetup_01_intro_to_data/)</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,6 +633,9 @@
       </c>
       <c r="E3" t="s">
         <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DATA606 2021 Fall2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2021 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F8C6CF-0E46-DB4A-AD45-917AF040D367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384CEFAC-F114-D142-B7DA-A7CD74995246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14740" yWindow="9120" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>[Recording and slides](/blog/meetup_01_intro_to_data/)</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/meetup_02_summarizing_data/)</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,6 +656,9 @@
       </c>
       <c r="E4" t="s">
         <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2021 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384CEFAC-F114-D142-B7DA-A7CD74995246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FE0867-C860-8E4E-B9C4-28AB3FC3934D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14740" yWindow="9120" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>[Recording and slides](/blog/meetup_02_summarizing_data/)</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/meetup_03_probability/)</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -676,6 +679,9 @@
       </c>
       <c r="E5" t="s">
         <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2021 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384CEFAC-F114-D142-B7DA-A7CD74995246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C6B4CE-AEE2-EE44-AF3C-9BA42F7DC824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14740" yWindow="9120" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>[Recording and slides](/blog/meetup_02_summarizing_data/)</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/meetup_03_probability/)</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/meetup_04_distributions/)</t>
   </si>
 </sst>
 </file>
@@ -206,10 +212,17 @@
     <numFmt numFmtId="165" formatCode="mmm\ dd"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -235,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -252,6 +265,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,7 +583,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -677,6 +691,9 @@
       <c r="E5" t="s">
         <v>31</v>
       </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -693,6 +710,9 @@
       </c>
       <c r="E6" t="s">
         <v>31</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2021 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C6B4CE-AEE2-EE44-AF3C-9BA42F7DC824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD7887A-975D-594B-8405-E3E22C9104BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14740" yWindow="9120" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="14740" yWindow="9120" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Chapter 7 - Inference for Numerical Data</t>
   </si>
   <si>
-    <t>Chapter 8 Linear Regression</t>
-  </si>
-  <si>
     <t>/chatpers/bayesian/</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>Distributions</t>
   </si>
   <si>
-    <t>Foundation for Inference</t>
-  </si>
-  <si>
     <t>Inference for Categorical Data</t>
   </si>
   <si>
@@ -179,9 +173,6 @@
     <t>Intro to the Course</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Thanksgiving Break</t>
   </si>
   <si>
@@ -201,6 +192,15 @@
   </si>
   <si>
     <t>[Recording and slides](/blog/meetup_04_distributions/)</t>
+  </si>
+  <si>
+    <t>Foundation for Inference Part 2</t>
+  </si>
+  <si>
+    <t>Foundation for Inference Part 1</t>
+  </si>
+  <si>
+    <t>Chapter 8 - Linear Regression</t>
   </si>
 </sst>
 </file>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -646,13 +646,13 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -666,13 +666,13 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -686,13 +686,13 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -706,13 +706,13 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -726,10 +726,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -743,10 +743,10 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -760,10 +760,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -777,10 +777,10 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -794,10 +794,10 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -811,10 +811,10 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -828,10 +828,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -845,7 +845,10 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -859,10 +862,10 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -876,10 +879,10 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -892,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -941,7 +944,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -955,7 +958,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -966,10 +969,10 @@
         <v>44465</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -977,69 +980,69 @@
         <v>44466</v>
       </c>
       <c r="B6" s="2">
-        <v>44472</v>
+        <v>44479</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44473</v>
+        <v>44480</v>
       </c>
       <c r="B7" s="2">
-        <v>44479</v>
+        <v>44486</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44480</v>
+        <v>44487</v>
       </c>
       <c r="B8" s="2">
-        <v>44486</v>
+        <v>44493</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44487</v>
+        <v>44494</v>
       </c>
       <c r="B9" s="2">
-        <v>44500</v>
+        <v>44507</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44501</v>
+        <v>44508</v>
       </c>
       <c r="B10" s="2">
         <v>44521</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1050,7 +1053,7 @@
         <v>44528</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1061,10 +1064,10 @@
         <v>44537</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1075,10 +1078,10 @@
         <v>44542</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2021 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD7887A-975D-594B-8405-E3E22C9104BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93295CC3-B8A1-BC40-B1B6-1AADA6FD76D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14740" yWindow="9120" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="14740" yWindow="9120" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Chapter 8 - Linear Regression</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/meetup_05_foundation_for_inference/)</t>
   </si>
 </sst>
 </file>
@@ -582,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -731,6 +734,9 @@
       <c r="E7" t="s">
         <v>30</v>
       </c>
+      <c r="F7" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -895,7 +901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2021 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93295CC3-B8A1-BC40-B1B6-1AADA6FD76D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC39CCA4-2DF0-4D41-A87A-8FA7B913C007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14740" yWindow="9120" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>[Recording and slides](/blog/meetup_05_foundation_for_inference/)</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/meetup_06_foundation_for_inference2/)</t>
   </si>
 </sst>
 </file>
@@ -586,7 +589,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -753,6 +756,9 @@
       </c>
       <c r="E8" t="s">
         <v>30</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2021 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC39CCA4-2DF0-4D41-A87A-8FA7B913C007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1298DC-0CC3-B64E-8436-4F99064A61C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14740" yWindow="9120" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>[Recording and slides](/blog/meetup_06_foundation_for_inference2/)</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/meetup_07_inference_for_categorical_data/)</t>
   </si>
 </sst>
 </file>
@@ -777,6 +780,9 @@
       <c r="E9" t="s">
         <v>30</v>
       </c>
+      <c r="F9" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2021 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1298DC-0CC3-B64E-8436-4F99064A61C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B3FF8C-0E25-4A42-BC13-57CB1B05B2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14740" yWindow="9120" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>[Recording and slides](/blog/meetup_07_inference_for_categorical_data/)</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/meetup_08_inference_for_numerical_data/)</t>
   </si>
 </sst>
 </file>
@@ -592,7 +595,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -799,6 +802,9 @@
       </c>
       <c r="E10" t="s">
         <v>30</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2021 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B3FF8C-0E25-4A42-BC13-57CB1B05B2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F24508-079D-6242-9920-69822EEEE7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14740" yWindow="9120" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -203,16 +203,16 @@
     <t>Chapter 8 - Linear Regression</t>
   </si>
   <si>
-    <t>[Recording and slides](/blog/meetup_05_foundation_for_inference/)</t>
-  </si>
-  <si>
-    <t>[Recording and slides](/blog/meetup_06_foundation_for_inference2/)</t>
-  </si>
-  <si>
-    <t>[Recording and slides](/blog/meetup_07_inference_for_categorical_data/)</t>
-  </si>
-  <si>
-    <t>[Recording and slides](/blog/meetup_08_inference_for_numerical_data/)</t>
+    <t>[Recording and slides](/blog/meetup_05a_foundation_for_inference/)</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/meetup_05b_foundation_for_inference2/)</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/meetup_06_inference_for_categorical_data/)</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/meetup_07_inference_for_numerical_data/)</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2021 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F24508-079D-6242-9920-69822EEEE7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5124EDA4-6A83-3E4D-963C-4C7277C2A4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14740" yWindow="9120" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>[Recording and slides](/blog/meetup_07_inference_for_numerical_data/)</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/meetup_09_linear_regression1/)</t>
   </si>
 </sst>
 </file>
@@ -823,6 +826,9 @@
       <c r="E11" t="s">
         <v>30</v>
       </c>
+      <c r="F11" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2021 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5124EDA4-6A83-3E4D-963C-4C7277C2A4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F39C1D5-1099-C94C-A7C2-D7E41716EB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14740" yWindow="9120" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -215,7 +215,7 @@
     <t>[Recording and slides](/blog/meetup_07_inference_for_numerical_data/)</t>
   </si>
   <si>
-    <t>[Recording and slides](/blog/meetup_09_linear_regression1/)</t>
+    <t>[Recording and slides](/blog/meetup_08_linear_regression1/)</t>
   </si>
 </sst>
 </file>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2021 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F39C1D5-1099-C94C-A7C2-D7E41716EB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481FD767-BC7F-5E46-878B-3DAC7BB0D7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14740" yWindow="9120" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -17,17 +17,26 @@
     <sheet name="Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Office_Hours" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -216,6 +225,9 @@
   </si>
   <si>
     <t>[Recording and slides](/blog/meetup_08_linear_regression1/)</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/meetup_08b_linear_regression2/)</t>
   </si>
 </sst>
 </file>
@@ -598,7 +610,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -845,6 +857,9 @@
       </c>
       <c r="E12" t="s">
         <v>30</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2021 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481FD767-BC7F-5E46-878B-3DAC7BB0D7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE74561-18B2-8342-8ED5-3D7A9603F958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14740" yWindow="9120" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>[Recording and slides](/blog/meetup_08b_linear_regression2/)</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/meetup_09a_multiple_linear_regression/)</t>
   </si>
 </sst>
 </file>
@@ -610,7 +613,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -877,6 +880,9 @@
       </c>
       <c r="E13" t="s">
         <v>30</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2021 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE74561-18B2-8342-8ED5-3D7A9603F958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F5B8DC-9268-7845-8EF3-12B0C120187F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14740" yWindow="9120" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>[Recording and slides](/blog/meetup_09a_multiple_linear_regression/)</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/meetup_09b_logistic_regression/)</t>
+  </si>
+  <si>
+    <t>No Meetup - Happy Thanksgiving</t>
   </si>
 </sst>
 </file>
@@ -610,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -901,38 +907,50 @@
       <c r="E14" t="s">
         <v>30</v>
       </c>
+      <c r="F14" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44531</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
+        <v>44524</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>44538</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
         <v>46</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2021 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F5B8DC-9268-7845-8EF3-12B0C120187F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC276101-A243-2A49-91E3-0271142631A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14740" yWindow="9120" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>No Meetup - Happy Thanksgiving</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/meetup_10_bayesian_analysis/)</t>
   </si>
 </sst>
 </file>
@@ -619,7 +622,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -935,6 +938,9 @@
       </c>
       <c r="E16" t="s">
         <v>30</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2021 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC276101-A243-2A49-91E3-0271142631A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E90765-7527-0D49-80EE-E2E00E1622A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14740" yWindow="9120" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>[Recording and slides](/blog/meetup_10_bayesian_analysis/)</t>
+  </si>
+  <si>
+    <t>[Recording and slides](/blog/meetup_11_final_meetup/)</t>
   </si>
 </sst>
 </file>
@@ -622,7 +625,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -943,7 +946,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44538</v>
       </c>
@@ -958,6 +961,9 @@
       </c>
       <c r="E17" t="s">
         <v>30</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
